--- a/outputs/reimport_invoice_factory_Silvassa.xlsx
+++ b/outputs/reimport_invoice_factory_Silvassa.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -86,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -100,7 +102,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -548,10 +556,10 @@
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>0.00278765</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>7000</v>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -559,7 +567,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="7" t="n">
         <v>19.51355</v>
       </c>
     </row>
@@ -582,10 +590,10 @@
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>0.00696913</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -593,7 +601,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="7" t="n">
         <v>20.90739</v>
       </c>
     </row>
@@ -623,10 +631,10 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>450</v>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -634,7 +642,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="7" t="n">
         <v>313.610706</v>
       </c>
     </row>
@@ -660,10 +668,10 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>3.67969893</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>30</v>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -671,7 +679,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="7" t="n">
         <v>110.3909679</v>
       </c>
     </row>
@@ -695,10 +703,10 @@
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>6.28615235</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>6</v>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -706,7 +714,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="7" t="n">
         <v>37.7169141</v>
       </c>
     </row>
@@ -731,10 +739,10 @@
 200米/卷</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -742,7 +750,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="7" t="n">
         <v>53.35563453</v>
       </c>
     </row>
@@ -767,10 +775,10 @@
 200米/卷</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -778,7 +786,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="7" t="n">
         <v>71.14084604</v>
       </c>
     </row>
@@ -801,10 +809,10 @@
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>24.53132622</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -812,7 +820,7 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="7" t="n">
         <v>49.06265244</v>
       </c>
     </row>
@@ -835,10 +843,10 @@
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>6</v>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -846,7 +854,7 @@
           <t>件</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="7" t="n">
         <v>585.40664856</v>
       </c>
     </row>
@@ -869,10 +877,10 @@
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="inlineStr">
@@ -880,7 +888,7 @@
           <t>件</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="7" t="n">
         <v>97.56777476000001</v>
       </c>
     </row>
@@ -903,10 +911,10 @@
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>1.10251585</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="inlineStr">
@@ -914,7 +922,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="7" t="n">
         <v>5.51257925</v>
       </c>
     </row>
@@ -937,10 +945,10 @@
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -948,7 +956,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="7" t="n">
         <v>13.93825355</v>
       </c>
     </row>
@@ -971,10 +979,10 @@
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>9.75677748</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="inlineStr">
@@ -982,7 +990,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="7" t="n">
         <v>19.51355496</v>
       </c>
     </row>
@@ -1005,10 +1013,10 @@
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>5</v>
       </c>
       <c r="G15" s="4" t="inlineStr">
@@ -1016,7 +1024,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="7" t="n">
         <v>13.93825355</v>
       </c>
     </row>
@@ -1039,10 +1047,10 @@
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="G16" s="4" t="inlineStr">
@@ -1050,7 +1058,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="7" t="n">
         <v>13.93825355</v>
       </c>
     </row>
@@ -1073,10 +1081,10 @@
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>20</v>
       </c>
       <c r="G17" s="4" t="inlineStr">
@@ -1084,7 +1092,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="7" t="n">
         <v>2.7876508</v>
       </c>
     </row>
@@ -1107,10 +1115,10 @@
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>20</v>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -1118,7 +1126,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="7" t="n">
         <v>2.7876508</v>
       </c>
     </row>
@@ -1141,10 +1149,10 @@
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>20</v>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1152,7 +1160,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="7" t="n">
         <v>2.7876508</v>
       </c>
     </row>
@@ -1175,10 +1183,10 @@
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>30.38539271</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="inlineStr">
@@ -1186,7 +1194,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="7" t="n">
         <v>30.38539271</v>
       </c>
     </row>
@@ -1209,10 +1217,10 @@
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>100</v>
       </c>
       <c r="G21" s="4" t="inlineStr">
@@ -1220,7 +1228,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="7" t="n">
         <v>13.938254</v>
       </c>
     </row>
@@ -1243,10 +1251,10 @@
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G22" s="4" t="inlineStr">
@@ -1254,7 +1262,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="7" t="n">
         <v>133.80723396</v>
       </c>
     </row>
@@ -1277,10 +1285,10 @@
           <t>DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="4" t="inlineStr">
@@ -1288,7 +1296,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="7" t="n">
         <v>133.80723396</v>
       </c>
     </row>
@@ -1311,10 +1319,10 @@
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="5" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -1322,7 +1330,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="7" t="n">
         <v>128.23193254</v>
       </c>
     </row>
@@ -1345,10 +1353,10 @@
           <t>DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G25" s="4" t="inlineStr">
@@ -1356,7 +1364,7 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="7" t="n">
         <v>128.23193254</v>
       </c>
     </row>
@@ -1369,12 +1377,12 @@
       </c>
       <c r="C26" s="4" t="n"/>
       <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="5" t="n">
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="6" t="n">
         <v>10693</v>
       </c>
       <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="7" t="n">
         <v>2002.2789113</v>
       </c>
     </row>

--- a/outputs/reimport_invoice_factory_Silvassa.xlsx
+++ b/outputs/reimport_invoice_factory_Silvassa.xlsx
@@ -2,11 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Packing List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Commercial Invoice" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,12 +29,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -55,27 +52,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -93,27 +75,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -476,9 +458,963 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sr No.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>P/N.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Model NO.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>QUANTITY</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CTNS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Carton MEASUREMENT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>G.W (KG)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>N.W(KG)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Carton NO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C100.030911007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>端子</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>XH2,54 端子，1包50个</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>51*52*5</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>F01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C100.030911008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>端子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VH3.96 端子，1包50个</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C100.C05-032-04-00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>铣刀</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Material: Tungsten Carbide Steel
+Mill Type: Standard Up Draft Type
+Tip Type: Standard Fish Tail Type
+Total Length: 38.1mm
+Knife Length: 12.5mm
+Handle Length: 25.6mm
+Shank Diameter: 3.175mm
+Kinfe Diameter: 1.6mm</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>450</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>28*16.5*11</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>F02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C100.C09-004-01-00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>胶带</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.3mm*200m/
+JL62 13.3*200
+230415455Y8212
+self-adhesive upper cover material Film</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>37*37*27</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>F03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C100.010503001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>胶带</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
+21.3mm 200M/卷</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C100.010523005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>载带</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
+24*16*0.30 
+200米/卷</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>50*32*51</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>F04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C100.010523005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>载带</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
+24*16*0.30 
+200米/卷</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>49*47.5*51.5</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>F05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C100.010523004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>载带</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>51*50*23</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>F06</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>E100.020308001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>机械配件</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>长510MM 宽223MM  高11MM</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>54*26*7</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>F18-F20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>E100.020308001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>机械配件</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>长510MM 宽223MM  高11MM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>54*26*5</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>F21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>E100.0203133015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>定位销</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FW07014AA</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>20*20*10</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>F22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>E100.0203104009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>保险丝座</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>排料机保险丝座</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>E100.0203104007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>三角刀</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>排料机三角刀</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>E100.0203104017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>送料器切刀</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>排料机送料器切刀</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>E100.0203162160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>螺杆</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>WS1D-08004</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>E100.0203162100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>螺丝</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Part No.: WJ-10509</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>E100.0203162049</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>螺丝</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Part No.: WJ-10301</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>E100.0203162047</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>螺丝</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Part No.: LS1D-04026</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>E100.0203162043</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>弯形送料器</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Part No.: LS1D-04021</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>E100.020344000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>螺丝</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LS1D-07037</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>J100.J01-002-05-00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>钢网</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DH 21_1341 B/T</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>76*74*7</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>F23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>J100.J01-002-05-00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>钢网</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DH 21_1340 B/T</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>76*74*7</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>F24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>J100.J03-002-01-00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>分板治具</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DH 21_1341 D/P</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>22*40*40</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>F25</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>J100.J03-002-01-00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>分板治具</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DH 21_1340 D/P</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>10693</v>
+      </c>
+      <c r="H26" t="n">
+        <v>99.48</v>
+      </c>
+      <c r="I26" t="n">
+        <v>94.81999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -1369,24 +2305,24 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
+      <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="5" t="n"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="5" t="inlineStr"/>
       <c r="F26" s="6" t="n">
         <v>10693</v>
       </c>
-      <c r="G26" s="4" t="n"/>
+      <c r="G26" s="4" t="inlineStr"/>
       <c r="H26" s="7" t="n">
         <v>2002.2789113</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/reimport_invoice_factory_Silvassa.xlsx
+++ b/outputs/reimport_invoice_factory_Silvassa.xlsx
@@ -543,10 +543,8 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>51*52*5</t>
-        </is>
+      <c r="G2" t="n">
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
         <v>1.86</v>
@@ -621,10 +619,8 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>28*16.5*11</t>
-        </is>
+      <c r="G4" t="n">
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
         <v>2.42</v>
@@ -666,10 +662,8 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>37*37*27</t>
-        </is>
+      <c r="G5" t="n">
+        <v>0.04</v>
       </c>
       <c r="H5" t="n">
         <v>10.24</v>
@@ -740,10 +734,8 @@
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>50*32*51</t>
-        </is>
+      <c r="G7" t="n">
+        <v>0.08</v>
       </c>
       <c r="H7" t="n">
         <v>6.92</v>
@@ -784,10 +776,8 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>49*47.5*51.5</t>
-        </is>
+      <c r="G8" t="n">
+        <v>0.12</v>
       </c>
       <c r="H8" t="n">
         <v>9.4</v>
@@ -826,10 +816,8 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>51*50*23</t>
-        </is>
+      <c r="G9" t="n">
+        <v>0.06</v>
       </c>
       <c r="H9" t="n">
         <v>5.84</v>
@@ -868,10 +856,8 @@
       <c r="F10" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>54*26*7</t>
-        </is>
+      <c r="G10" t="n">
+        <v>0.01</v>
       </c>
       <c r="H10" t="n">
         <v>30.9</v>
@@ -910,10 +896,8 @@
       <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>54*26*5</t>
-        </is>
+      <c r="G11" t="n">
+        <v>0.01</v>
       </c>
       <c r="H11" t="n">
         <v>5.16</v>
@@ -952,10 +936,8 @@
       <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>20*20*10</t>
-        </is>
+      <c r="G12" t="n">
+        <v>0.01</v>
       </c>
       <c r="H12" t="n">
         <v>0.58</v>
@@ -1255,10 +1237,8 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>76*74*7</t>
-        </is>
+      <c r="G22" t="n">
+        <v>0.04</v>
       </c>
       <c r="H22" t="n">
         <v>7.54</v>
@@ -1297,10 +1277,8 @@
       <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>76*74*7</t>
-        </is>
+      <c r="G23" t="n">
+        <v>0.04</v>
       </c>
       <c r="H23" t="n">
         <v>7.54</v>
@@ -1339,10 +1317,8 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>22*40*40</t>
-        </is>
+      <c r="G24" t="n">
+        <v>0.04</v>
       </c>
       <c r="H24" t="n">
         <v>11.08</v>

--- a/outputs/reimport_invoice_factory_Silvassa.xlsx
+++ b/outputs/reimport_invoice_factory_Silvassa.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-XH2,54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-VH3.96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>铣刀</t>
+          <t>Milling cutter</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>定位销</t>
+          <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>保险丝座</t>
+          <t>Fuse holder-plastic</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>三角刀</t>
+          <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>送料器切刀</t>
+          <t>Metal cutters for feeder</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>螺杆</t>
+          <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-LS1D-04026</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>弯形送料器</t>
+          <t>Metal block-LS1D-04021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw -LS1D-07037</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-XH2,54</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H2" s="7" t="n">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-VH3.96</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H3" s="7" t="n">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>铣刀</t>
+          <t>Milling cutter</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H4" s="7" t="n">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H5" s="7" t="n">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H6" s="7" t="n">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H7" s="7" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H8" s="7" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H9" s="7" t="n">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H10" s="7" t="n">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H11" s="7" t="n">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>定位销</t>
+          <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H12" s="7" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>保险丝座</t>
+          <t>Fuse holder-plastic</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H13" s="7" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>三角刀</t>
+          <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H14" s="7" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>送料器切刀</t>
+          <t>Metal cutters for feeder</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H15" s="7" t="n">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>螺杆</t>
+          <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H16" s="7" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H17" s="7" t="n">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H18" s="7" t="n">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-LS1D-04026</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H19" s="7" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>弯形送料器</t>
+          <t>Metal block-LS1D-04021</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H20" s="7" t="n">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw -LS1D-07037</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H21" s="7" t="n">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H22" s="7" t="n">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H23" s="7" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H24" s="7" t="n">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H25" s="7" t="n">
